--- a/Test1V2D_Spouse.xlsx
+++ b/Test1V2D_Spouse.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BatchFile" sheetId="3" r:id="rId1"/>
     <sheet name="Quick Sanity" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatchFile!$A$3:$F$13</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="255">
   <si>
     <t>Page/Section</t>
   </si>
@@ -620,6 +621,174 @@
   </si>
   <si>
     <t>Testqa</t>
+  </si>
+  <si>
+    <t>Aboutyourfamily</t>
+  </si>
+  <si>
+    <t>LittleOnes</t>
+  </si>
+  <si>
+    <t>YoungAdults</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>MoveinYear</t>
+  </si>
+  <si>
+    <t>MoveinMonth</t>
+  </si>
+  <si>
+    <t>TypeofResidence</t>
+  </si>
+  <si>
+    <t>Rentersinsuranceinterest</t>
+  </si>
+  <si>
+    <t>Financeorlease</t>
+  </si>
+  <si>
+    <t>KeptinZip</t>
+  </si>
+  <si>
+    <t>YearBought</t>
+  </si>
+  <si>
+    <t>MonthBought</t>
+  </si>
+  <si>
+    <t>Ownedbyyou</t>
+  </si>
+  <si>
+    <t>Titledinnext30days</t>
+  </si>
+  <si>
+    <t>CustomEquipment</t>
+  </si>
+  <si>
+    <t>EstimatedValue</t>
+  </si>
+  <si>
+    <t>CrashAvoidance</t>
+  </si>
+  <si>
+    <t>HandsFree</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>ValidLicense</t>
+  </si>
+  <si>
+    <t>Agefirstlicensed</t>
+  </si>
+  <si>
+    <t>IncidentHistory</t>
+  </si>
+  <si>
+    <t>IncidentDate</t>
+  </si>
+  <si>
+    <t>SpouseFirstName</t>
+  </si>
+  <si>
+    <t>SpouseLastName</t>
+  </si>
+  <si>
+    <t>SpouseDOB</t>
+  </si>
+  <si>
+    <t>SpouseGender</t>
+  </si>
+  <si>
+    <t>SpouseEducation</t>
+  </si>
+  <si>
+    <t>SpouseEmployment</t>
+  </si>
+  <si>
+    <t>SpouseOccupation</t>
+  </si>
+  <si>
+    <t>SpouseValidLicense</t>
+  </si>
+  <si>
+    <t>SpouseAgefirstlicensed</t>
+  </si>
+  <si>
+    <t>SpouseIncident</t>
+  </si>
+  <si>
+    <t>CurrentlyInsured</t>
+  </si>
+  <si>
+    <t>CurrentInsuranceProvider</t>
+  </si>
+  <si>
+    <t>YearswithCurrentInsurer</t>
+  </si>
+  <si>
+    <t>BILimit</t>
+  </si>
+  <si>
+    <t>Uninsuredinlast3years</t>
+  </si>
+  <si>
+    <t>PaperlessDiscount</t>
+  </si>
+  <si>
+    <t>E-SignatureDiscount</t>
+  </si>
+  <si>
+    <t>PolicyStartDate</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Licenseno</t>
+  </si>
+  <si>
+    <t>SpouseLicenseno</t>
+  </si>
+  <si>
+    <t>LicenseState</t>
+  </si>
+  <si>
+    <t>PaymentPlan</t>
+  </si>
+  <si>
+    <t>CardHolderFirstName</t>
+  </si>
+  <si>
+    <t>CardHolderLastName</t>
+  </si>
+  <si>
+    <t>CardNo</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>PolicyholderDetails</t>
+  </si>
+  <si>
+    <t>InsuranceHistory</t>
+  </si>
+  <si>
+    <t>ConfirmDriver</t>
+  </si>
+  <si>
+    <t>ConfirmVehicle</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,12 +1205,115 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1400,7 +1672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1935,18 +2207,18 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F24">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G24">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1967,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,19 +2993,19 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B74:B1048576 B1:B4 B7:B46 B68:B72">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B67">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B56">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="19"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="/v1-family"/>
@@ -2741,4 +3013,824 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="41"/>
+      <c r="B56" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="41"/>
+      <c r="B57" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="42"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="41"/>
+      <c r="B62" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="41"/>
+      <c r="B69" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="41"/>
+      <c r="B74" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="41"/>
+      <c r="B75" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="41"/>
+      <c r="B76" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="41"/>
+      <c r="B79" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="41"/>
+      <c r="B80" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="42"/>
+      <c r="B82" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="41"/>
+      <c r="B83" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="41"/>
+      <c r="B84" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="41"/>
+      <c r="B85" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="42"/>
+      <c r="B87" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="41"/>
+      <c r="B90" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="41"/>
+      <c r="B91" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="41"/>
+      <c r="B92" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B85:B1048576 B5:B53 B78:B83">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B77">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B60">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B64">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>